--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>867.0338463691576</v>
+        <v>1072.525473238768</v>
       </c>
       <c r="AB2" t="n">
-        <v>1186.313959435975</v>
+        <v>1467.476668969733</v>
       </c>
       <c r="AC2" t="n">
-        <v>1073.093820149505</v>
+        <v>1327.422755299701</v>
       </c>
       <c r="AD2" t="n">
-        <v>867033.8463691575</v>
+        <v>1072525.473238769</v>
       </c>
       <c r="AE2" t="n">
-        <v>1186313.959435975</v>
+        <v>1467476.668969733</v>
       </c>
       <c r="AF2" t="n">
         <v>3.730397482441204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.07175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1073093.820149505</v>
+        <v>1327422.755299701</v>
       </c>
     </row>
     <row r="3">
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.4341810686913</v>
+        <v>704.1946803162122</v>
       </c>
       <c r="AB3" t="n">
-        <v>762.7060387986184</v>
+        <v>963.5102284853475</v>
       </c>
       <c r="AC3" t="n">
-        <v>689.9144449203261</v>
+        <v>871.554164573804</v>
       </c>
       <c r="AD3" t="n">
-        <v>557434.1810686913</v>
+        <v>704194.6803162121</v>
       </c>
       <c r="AE3" t="n">
-        <v>762706.0387986184</v>
+        <v>963510.2284853475</v>
       </c>
       <c r="AF3" t="n">
         <v>5.183284851188706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.27777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>689914.4449203261</v>
+        <v>871554.164573804</v>
       </c>
     </row>
     <row r="4">
@@ -2464,28 +2464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>481.3479546955448</v>
+        <v>618.2857672539365</v>
       </c>
       <c r="AB4" t="n">
-        <v>658.601507187475</v>
+        <v>845.9658635997849</v>
       </c>
       <c r="AC4" t="n">
-        <v>595.7455036945224</v>
+        <v>765.2280688983673</v>
       </c>
       <c r="AD4" t="n">
-        <v>481347.9546955448</v>
+        <v>618285.7672539365</v>
       </c>
       <c r="AE4" t="n">
-        <v>658601.507187475</v>
+        <v>845965.8635997849</v>
       </c>
       <c r="AF4" t="n">
         <v>5.756493261464579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.26851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>595745.5036945224</v>
+        <v>765228.0688983672</v>
       </c>
     </row>
     <row r="5">
@@ -2570,28 +2570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>435.699859309556</v>
+        <v>572.6708262568712</v>
       </c>
       <c r="AB5" t="n">
-        <v>596.143769228527</v>
+        <v>783.5534889384307</v>
       </c>
       <c r="AC5" t="n">
-        <v>539.2486445863908</v>
+        <v>708.7722436783749</v>
       </c>
       <c r="AD5" t="n">
-        <v>435699.859309556</v>
+        <v>572670.8262568712</v>
       </c>
       <c r="AE5" t="n">
-        <v>596143.7692285271</v>
+        <v>783553.4889384308</v>
       </c>
       <c r="AF5" t="n">
         <v>6.072727473142681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.8449074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>539248.6445863908</v>
+        <v>708772.2436783749</v>
       </c>
     </row>
     <row r="6">
@@ -2676,28 +2676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>425.65307966215</v>
+        <v>552.8023709501932</v>
       </c>
       <c r="AB6" t="n">
-        <v>582.39732208231</v>
+        <v>756.3685918534486</v>
       </c>
       <c r="AC6" t="n">
-        <v>526.8141390625489</v>
+        <v>684.1818350169407</v>
       </c>
       <c r="AD6" t="n">
-        <v>425653.07966215</v>
+        <v>552802.3709501933</v>
       </c>
       <c r="AE6" t="n">
-        <v>582397.32208231</v>
+        <v>756368.5918534487</v>
       </c>
       <c r="AF6" t="n">
         <v>6.173754268897476e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>526814.1390625489</v>
+        <v>684181.8350169407</v>
       </c>
     </row>
   </sheetData>
@@ -2973,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>683.3662393765732</v>
+        <v>867.2625078098464</v>
       </c>
       <c r="AB2" t="n">
-        <v>935.011836705771</v>
+        <v>1186.626824106957</v>
       </c>
       <c r="AC2" t="n">
-        <v>845.7756193079264</v>
+        <v>1073.376825455396</v>
       </c>
       <c r="AD2" t="n">
-        <v>683366.2393765731</v>
+        <v>867262.5078098464</v>
       </c>
       <c r="AE2" t="n">
-        <v>935011.8367057709</v>
+        <v>1186626.824106957</v>
       </c>
       <c r="AF2" t="n">
         <v>4.66842983042939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.78240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>845775.6193079264</v>
+        <v>1073376.825455396</v>
       </c>
     </row>
     <row r="3">
@@ -3079,28 +3079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.002189904692</v>
+        <v>615.4625581985011</v>
       </c>
       <c r="AB3" t="n">
-        <v>656.7601724296777</v>
+        <v>842.1030244189452</v>
       </c>
       <c r="AC3" t="n">
-        <v>594.0799033416798</v>
+        <v>761.7338936674183</v>
       </c>
       <c r="AD3" t="n">
-        <v>480002.189904692</v>
+        <v>615462.5581985011</v>
       </c>
       <c r="AE3" t="n">
-        <v>656760.1724296777</v>
+        <v>842103.0244189452</v>
       </c>
       <c r="AF3" t="n">
         <v>6.10666173286565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>594079.9033416798</v>
+        <v>761733.8936674183</v>
       </c>
     </row>
     <row r="4">
@@ -3185,28 +3185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.1026957898601</v>
+        <v>548.5620530538122</v>
       </c>
       <c r="AB4" t="n">
-        <v>565.2253331843835</v>
+        <v>750.566801837997</v>
       </c>
       <c r="AC4" t="n">
-        <v>511.2810206840028</v>
+        <v>678.9337596977003</v>
       </c>
       <c r="AD4" t="n">
-        <v>413102.6957898601</v>
+        <v>548562.0530538121</v>
       </c>
       <c r="AE4" t="n">
-        <v>565225.3331843836</v>
+        <v>750566.801837997</v>
       </c>
       <c r="AF4" t="n">
         <v>6.664267787684125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.76388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>511281.0206840028</v>
+        <v>678933.7596977004</v>
       </c>
     </row>
     <row r="5">
@@ -3291,28 +3291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.8680424327289</v>
+        <v>533.6136961576492</v>
       </c>
       <c r="AB5" t="n">
-        <v>558.0630495245491</v>
+        <v>730.1138004577041</v>
       </c>
       <c r="AC5" t="n">
-        <v>504.8022953243348</v>
+        <v>660.4327640631749</v>
       </c>
       <c r="AD5" t="n">
-        <v>407868.0424327289</v>
+        <v>533613.6961576492</v>
       </c>
       <c r="AE5" t="n">
-        <v>558063.0495245492</v>
+        <v>730113.8004577041</v>
       </c>
       <c r="AF5" t="n">
         <v>6.741276181098385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.47453703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>504802.2953243348</v>
+        <v>660432.7640631748</v>
       </c>
     </row>
   </sheetData>
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>388.357277251632</v>
+        <v>519.232536381318</v>
       </c>
       <c r="AB2" t="n">
-        <v>531.3675598495616</v>
+        <v>710.4368631997359</v>
       </c>
       <c r="AC2" t="n">
-        <v>480.654585716573</v>
+        <v>642.6337660803522</v>
       </c>
       <c r="AD2" t="n">
-        <v>388357.277251632</v>
+        <v>519232.536381318</v>
       </c>
       <c r="AE2" t="n">
-        <v>531367.5598495617</v>
+        <v>710436.8631997359</v>
       </c>
       <c r="AF2" t="n">
         <v>8.808343975840684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.21064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>480654.5857165729</v>
+        <v>642633.7660803522</v>
       </c>
     </row>
     <row r="3">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.1314481459185</v>
+        <v>507.0740270833089</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.6396411016108</v>
+        <v>693.8010543826265</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.5231560561451</v>
+        <v>627.5856555082435</v>
       </c>
       <c r="AD3" t="n">
-        <v>376131.4481459184</v>
+        <v>507074.0270833089</v>
       </c>
       <c r="AE3" t="n">
-        <v>514639.6411016107</v>
+        <v>693801.0543826264</v>
       </c>
       <c r="AF3" t="n">
         <v>8.913552852653528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.88657407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>465523.1560561451</v>
+        <v>627585.6555082435</v>
       </c>
     </row>
   </sheetData>
@@ -3991,28 +3991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.7428851713837</v>
+        <v>621.9141172908626</v>
       </c>
       <c r="AB2" t="n">
-        <v>656.405380253848</v>
+        <v>850.9303321918136</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.7589720331572</v>
+        <v>769.7187355756482</v>
       </c>
       <c r="AD2" t="n">
-        <v>479742.8851713837</v>
+        <v>621914.1172908626</v>
       </c>
       <c r="AE2" t="n">
-        <v>656405.3802538479</v>
+        <v>850930.3321918136</v>
       </c>
       <c r="AF2" t="n">
         <v>6.894648830206672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>593758.9720331572</v>
+        <v>769718.7355756483</v>
       </c>
     </row>
     <row r="3">
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.6220901691594</v>
+        <v>512.8281820316805</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.0981326829306</v>
+        <v>701.6741430383888</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.2199951075994</v>
+        <v>634.7073476326491</v>
       </c>
       <c r="AD3" t="n">
-        <v>389622.0901691595</v>
+        <v>512828.1820316805</v>
       </c>
       <c r="AE3" t="n">
-        <v>533098.1326829306</v>
+        <v>701674.1430383888</v>
       </c>
       <c r="AF3" t="n">
         <v>7.974347752162976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.03009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>482219.9951075994</v>
+        <v>634707.3476326491</v>
       </c>
     </row>
   </sheetData>
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.1230150512937</v>
+        <v>514.5730999200698</v>
       </c>
       <c r="AB2" t="n">
-        <v>526.942299621481</v>
+        <v>704.0616166736271</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.6516661137685</v>
+        <v>636.8669641349807</v>
       </c>
       <c r="AD2" t="n">
-        <v>385123.0150512938</v>
+        <v>514573.0999200699</v>
       </c>
       <c r="AE2" t="n">
-        <v>526942.299621481</v>
+        <v>704061.6166736271</v>
       </c>
       <c r="AF2" t="n">
         <v>9.741956256614654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.18287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>476651.6661137685</v>
+        <v>636866.9641349807</v>
       </c>
     </row>
   </sheetData>
@@ -4691,28 +4691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.9118687470099</v>
+        <v>916.314194217014</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.434108492418</v>
+        <v>1253.74150545692</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.8586426994997</v>
+        <v>1134.086175813365</v>
       </c>
       <c r="AD2" t="n">
-        <v>731911.8687470099</v>
+        <v>916314.194217014</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001434.108492418</v>
+        <v>1253741.50545692</v>
       </c>
       <c r="AF2" t="n">
         <v>4.404197959033962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.05555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>905858.6426994997</v>
+        <v>1134086.175813365</v>
       </c>
     </row>
     <row r="3">
@@ -4797,28 +4797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>493.3018869223975</v>
+        <v>638.9016519860181</v>
       </c>
       <c r="AB3" t="n">
-        <v>674.9574046305246</v>
+        <v>874.1734265988634</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.5404172412536</v>
+        <v>790.7435416743772</v>
       </c>
       <c r="AD3" t="n">
-        <v>493301.8869223975</v>
+        <v>638901.6519860182</v>
       </c>
       <c r="AE3" t="n">
-        <v>674957.4046305246</v>
+        <v>874173.4265988634</v>
       </c>
       <c r="AF3" t="n">
         <v>5.861404398186995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.58796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>610540.4172412537</v>
+        <v>790743.5416743772</v>
       </c>
     </row>
     <row r="4">
@@ -4903,28 +4903,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.1182396049529</v>
+        <v>562.2669928819964</v>
       </c>
       <c r="AB4" t="n">
-        <v>596.716215606325</v>
+        <v>769.3185051301921</v>
       </c>
       <c r="AC4" t="n">
-        <v>539.7664574853253</v>
+        <v>695.8958267458693</v>
       </c>
       <c r="AD4" t="n">
-        <v>436118.2396049529</v>
+        <v>562266.9928819964</v>
       </c>
       <c r="AE4" t="n">
-        <v>596716.2156063251</v>
+        <v>769318.505130192</v>
       </c>
       <c r="AF4" t="n">
         <v>6.394680562276882e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.20370370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>539766.4574853253</v>
+        <v>695895.8267458692</v>
       </c>
     </row>
     <row r="5">
@@ -5009,28 +5009,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.4822702547983</v>
+        <v>538.5968581130611</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.3764395960692</v>
+        <v>736.9319824866885</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.5131443083275</v>
+        <v>666.6002283686915</v>
       </c>
       <c r="AD5" t="n">
-        <v>412482.2702547983</v>
+        <v>538596.8581130611</v>
       </c>
       <c r="AE5" t="n">
-        <v>564376.4395960692</v>
+        <v>736931.9824866885</v>
       </c>
       <c r="AF5" t="n">
         <v>6.58059601019744e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.46296296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>510513.1443083275</v>
+        <v>666600.2283686915</v>
       </c>
     </row>
   </sheetData>
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.9467875581888</v>
+        <v>527.6880777786311</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.5423979752383</v>
+        <v>722.0061079716986</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.6218603439394</v>
+        <v>653.0988583688159</v>
       </c>
       <c r="AD2" t="n">
-        <v>389946.7875581888</v>
+        <v>527688.077778631</v>
       </c>
       <c r="AE2" t="n">
-        <v>533542.3979752383</v>
+        <v>722006.1079716986</v>
       </c>
       <c r="AF2" t="n">
         <v>1.025122014971063e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.30555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>482621.8603439395</v>
+        <v>653098.8583688159</v>
       </c>
     </row>
   </sheetData>
@@ -5603,28 +5603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.6591980447455</v>
+        <v>739.5612571393422</v>
       </c>
       <c r="AB2" t="n">
-        <v>789.0105551731455</v>
+        <v>1011.900339158006</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.7084951706889</v>
+        <v>915.3259909998106</v>
       </c>
       <c r="AD2" t="n">
-        <v>576659.1980447455</v>
+        <v>739561.2571393421</v>
       </c>
       <c r="AE2" t="n">
-        <v>789010.5551731455</v>
+        <v>1011900.339158006</v>
       </c>
       <c r="AF2" t="n">
         <v>5.610960204499474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.27546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>713708.495170689</v>
+        <v>915325.9909998106</v>
       </c>
     </row>
     <row r="3">
@@ -5709,28 +5709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>418.6224736733434</v>
+        <v>552.8265212248654</v>
       </c>
       <c r="AB3" t="n">
-        <v>572.7777367999792</v>
+        <v>756.4016353246898</v>
       </c>
       <c r="AC3" t="n">
-        <v>518.112633498391</v>
+        <v>684.2117248656633</v>
       </c>
       <c r="AD3" t="n">
-        <v>418622.4736733434</v>
+        <v>552826.5212248653</v>
       </c>
       <c r="AE3" t="n">
-        <v>572777.7367999791</v>
+        <v>756401.6353246898</v>
       </c>
       <c r="AF3" t="n">
         <v>7.018338812885732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.60879629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>518112.633498391</v>
+        <v>684211.7248656633</v>
       </c>
     </row>
     <row r="4">
@@ -5815,28 +5815,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>394.4892036997115</v>
+        <v>519.1389728864211</v>
       </c>
       <c r="AB4" t="n">
-        <v>539.7575321373264</v>
+        <v>710.3088454982878</v>
       </c>
       <c r="AC4" t="n">
-        <v>488.2438308245935</v>
+        <v>642.5179662086564</v>
       </c>
       <c r="AD4" t="n">
-        <v>394489.2036997115</v>
+        <v>519138.9728864211</v>
       </c>
       <c r="AE4" t="n">
-        <v>539757.5321373264</v>
+        <v>710308.8454982878</v>
       </c>
       <c r="AF4" t="n">
         <v>7.26890157556186e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.69444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>488243.8308245935</v>
+        <v>642517.9662086564</v>
       </c>
     </row>
   </sheetData>
@@ -6112,28 +6112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>646.6054836852751</v>
+        <v>820.3251114870139</v>
       </c>
       <c r="AB2" t="n">
-        <v>884.7141489988546</v>
+        <v>1122.405007726277</v>
       </c>
       <c r="AC2" t="n">
-        <v>800.2782723225099</v>
+        <v>1015.284249094202</v>
       </c>
       <c r="AD2" t="n">
-        <v>646605.4836852751</v>
+        <v>820325.111487014</v>
       </c>
       <c r="AE2" t="n">
-        <v>884714.1489988547</v>
+        <v>1122405.007726277</v>
       </c>
       <c r="AF2" t="n">
         <v>4.954205410965706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.5787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>800278.2723225099</v>
+        <v>1015284.249094202</v>
       </c>
     </row>
     <row r="3">
@@ -6218,28 +6218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.12349541477</v>
+        <v>592.2387614827892</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.4565332918008</v>
+        <v>810.3272011909069</v>
       </c>
       <c r="AC3" t="n">
-        <v>565.7638395881884</v>
+        <v>732.9907104106157</v>
       </c>
       <c r="AD3" t="n">
-        <v>457123.49541477</v>
+        <v>592238.7614827892</v>
       </c>
       <c r="AE3" t="n">
-        <v>625456.5332918009</v>
+        <v>810327.2011909068</v>
       </c>
       <c r="AF3" t="n">
         <v>6.373108359352399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.66203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>565763.8395881883</v>
+        <v>732990.7104106158</v>
       </c>
     </row>
     <row r="4">
@@ -6324,28 +6324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>403.3169630555983</v>
+        <v>528.7811386901876</v>
       </c>
       <c r="AB4" t="n">
-        <v>551.8360619413073</v>
+        <v>723.5016821333343</v>
       </c>
       <c r="AC4" t="n">
-        <v>499.1696026964054</v>
+        <v>654.4516970315166</v>
       </c>
       <c r="AD4" t="n">
-        <v>403316.9630555983</v>
+        <v>528781.1386901876</v>
       </c>
       <c r="AE4" t="n">
-        <v>551836.0619413073</v>
+        <v>723501.6821333342</v>
       </c>
       <c r="AF4" t="n">
         <v>6.902474748597022e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.5324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>499169.6026964054</v>
+        <v>654451.6970315166</v>
       </c>
     </row>
     <row r="5">
@@ -6430,28 +6430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.9512005542865</v>
+        <v>529.4153761888758</v>
       </c>
       <c r="AB5" t="n">
-        <v>552.7038536675964</v>
+        <v>724.3694738596233</v>
       </c>
       <c r="AC5" t="n">
-        <v>499.9545735982908</v>
+        <v>655.2366679334019</v>
       </c>
       <c r="AD5" t="n">
-        <v>403951.2005542865</v>
+        <v>529415.3761888759</v>
       </c>
       <c r="AE5" t="n">
-        <v>552703.8536675964</v>
+        <v>724369.4738596233</v>
       </c>
       <c r="AF5" t="n">
         <v>6.895773908226835e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.55555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>499954.5735982908</v>
+        <v>655236.6679334019</v>
       </c>
     </row>
   </sheetData>
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>813.7970417293932</v>
+        <v>1018.782410822808</v>
       </c>
       <c r="AB2" t="n">
-        <v>1113.473014685788</v>
+        <v>1393.943039995637</v>
       </c>
       <c r="AC2" t="n">
-        <v>1007.204712933367</v>
+        <v>1260.907072669796</v>
       </c>
       <c r="AD2" t="n">
-        <v>813797.0417293932</v>
+        <v>1018782.410822808</v>
       </c>
       <c r="AE2" t="n">
-        <v>1113473.014685788</v>
+        <v>1393943.039995637</v>
       </c>
       <c r="AF2" t="n">
         <v>3.937134145709735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.69444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1007204.712933367</v>
+        <v>1260907.072669796</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.7258728819546</v>
+        <v>688.8629016727321</v>
       </c>
       <c r="AB3" t="n">
-        <v>728.8990414839003</v>
+        <v>942.5326125550017</v>
       </c>
       <c r="AC3" t="n">
-        <v>659.3339399809059</v>
+        <v>852.5786228655817</v>
       </c>
       <c r="AD3" t="n">
-        <v>532725.8728819547</v>
+        <v>688862.9016727321</v>
       </c>
       <c r="AE3" t="n">
-        <v>728899.0414839003</v>
+        <v>942532.6125550017</v>
       </c>
       <c r="AF3" t="n">
         <v>5.389107243223844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.7337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>659333.939980906</v>
+        <v>852578.6228655817</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.444972673296</v>
+        <v>596.0904969293119</v>
       </c>
       <c r="AB4" t="n">
-        <v>628.6328808932647</v>
+        <v>815.5973155554142</v>
       </c>
       <c r="AC4" t="n">
-        <v>568.6370410326005</v>
+        <v>737.7578524568265</v>
       </c>
       <c r="AD4" t="n">
-        <v>459444.972673296</v>
+        <v>596090.4969293119</v>
       </c>
       <c r="AE4" t="n">
-        <v>628632.8808932647</v>
+        <v>815597.3155554142</v>
       </c>
       <c r="AF4" t="n">
         <v>5.957962836061893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.89814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>568637.0410326004</v>
+        <v>737757.8524568265</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.7437877103534</v>
+        <v>551.6606424083789</v>
       </c>
       <c r="AB5" t="n">
-        <v>581.1531887187322</v>
+        <v>754.8064284930298</v>
       </c>
       <c r="AC5" t="n">
-        <v>525.6887440410388</v>
+        <v>682.7687623351301</v>
       </c>
       <c r="AD5" t="n">
-        <v>424743.7877103534</v>
+        <v>551660.6424083789</v>
       </c>
       <c r="AE5" t="n">
-        <v>581153.1887187322</v>
+        <v>754806.4284930298</v>
       </c>
       <c r="AF5" t="n">
         <v>6.264472031132091e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.57870370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>525688.7440410388</v>
+        <v>682768.7623351301</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>421.4405459842121</v>
+        <v>548.2559154557524</v>
       </c>
       <c r="AB6" t="n">
-        <v>576.6335476602856</v>
+        <v>750.1479308704941</v>
       </c>
       <c r="AC6" t="n">
-        <v>521.6004511818544</v>
+        <v>678.5548651874468</v>
       </c>
       <c r="AD6" t="n">
-        <v>421440.5459842121</v>
+        <v>548255.9154557524</v>
       </c>
       <c r="AE6" t="n">
-        <v>576633.5476602856</v>
+        <v>750147.9308704941</v>
       </c>
       <c r="AF6" t="n">
         <v>6.306835090613338e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.40509259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>521600.4511818544</v>
+        <v>678554.8651874468</v>
       </c>
     </row>
   </sheetData>
@@ -7448,28 +7448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>511.5607347834289</v>
+        <v>663.7751213842407</v>
       </c>
       <c r="AB2" t="n">
-        <v>699.9399657975044</v>
+        <v>908.2064047695352</v>
       </c>
       <c r="AC2" t="n">
-        <v>633.1386778337018</v>
+        <v>821.5284601740248</v>
       </c>
       <c r="AD2" t="n">
-        <v>511560.734783429</v>
+        <v>663775.1213842407</v>
       </c>
       <c r="AE2" t="n">
-        <v>699939.9657975044</v>
+        <v>908206.4047695352</v>
       </c>
       <c r="AF2" t="n">
         <v>6.40921461783927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.16898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>633138.6778337017</v>
+        <v>821528.4601740248</v>
       </c>
     </row>
     <row r="3">
@@ -7554,28 +7554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.6640703472004</v>
+        <v>518.8721273585237</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.6825953470153</v>
+        <v>709.9437356746247</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.3213090542694</v>
+        <v>642.1877019541287</v>
       </c>
       <c r="AD3" t="n">
-        <v>385664.0703472004</v>
+        <v>518872.1273585237</v>
       </c>
       <c r="AE3" t="n">
-        <v>527682.5953470153</v>
+        <v>709943.7356746247</v>
       </c>
       <c r="AF3" t="n">
         <v>7.694302189048642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.96064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>477321.3090542694</v>
+        <v>642187.7019541287</v>
       </c>
     </row>
     <row r="4">
@@ -7660,28 +7660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.7721421220424</v>
+        <v>518.9801991333658</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.8304639171445</v>
+        <v>710.0916042447539</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.4550652556003</v>
+        <v>642.3214581554596</v>
       </c>
       <c r="AD4" t="n">
-        <v>385772.1421220424</v>
+        <v>518980.1991333658</v>
       </c>
       <c r="AE4" t="n">
-        <v>527830.4639171445</v>
+        <v>710091.6042447538</v>
       </c>
       <c r="AF4" t="n">
         <v>7.712769066582809e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.90277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>477455.0652556003</v>
+        <v>642321.4581554596</v>
       </c>
     </row>
   </sheetData>
@@ -7957,28 +7957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.7976821929529</v>
+        <v>549.3434295463039</v>
       </c>
       <c r="AB2" t="n">
-        <v>571.649220709277</v>
+        <v>751.6359156269222</v>
       </c>
       <c r="AC2" t="n">
-        <v>517.0918213995031</v>
+        <v>679.9008387671212</v>
       </c>
       <c r="AD2" t="n">
-        <v>417797.682192953</v>
+        <v>549343.4295463039</v>
       </c>
       <c r="AE2" t="n">
-        <v>571649.220709277</v>
+        <v>751635.9156269222</v>
       </c>
       <c r="AF2" t="n">
         <v>8.086237524321357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.09027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>517091.8213995032</v>
+        <v>679900.8387671212</v>
       </c>
     </row>
     <row r="3">
@@ -8063,28 +8063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>380.861073591789</v>
+        <v>512.4399753340635</v>
       </c>
       <c r="AB3" t="n">
-        <v>521.1109232929992</v>
+        <v>701.1429815082381</v>
       </c>
       <c r="AC3" t="n">
-        <v>471.376828157689</v>
+        <v>634.2268794134462</v>
       </c>
       <c r="AD3" t="n">
-        <v>380861.073591789</v>
+        <v>512439.9753340635</v>
       </c>
       <c r="AE3" t="n">
-        <v>521110.9232929993</v>
+        <v>701142.9815082381</v>
       </c>
       <c r="AF3" t="n">
         <v>8.557223328431811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.53935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>471376.828157689</v>
+        <v>634226.8794134462</v>
       </c>
     </row>
   </sheetData>
@@ -13869,28 +13869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.1121531657673</v>
+        <v>510.2942117864143</v>
       </c>
       <c r="AB2" t="n">
-        <v>520.086217326079</v>
+        <v>698.2070531579379</v>
       </c>
       <c r="AC2" t="n">
-        <v>470.4499186900678</v>
+        <v>631.5711519442974</v>
       </c>
       <c r="AD2" t="n">
-        <v>380112.1531657673</v>
+        <v>510294.2117864143</v>
       </c>
       <c r="AE2" t="n">
-        <v>520086.217326079</v>
+        <v>698207.0531579379</v>
       </c>
       <c r="AF2" t="n">
         <v>9.307751880720302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.40740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>470449.9186900678</v>
+        <v>631571.1519442974</v>
       </c>
     </row>
   </sheetData>
@@ -14166,28 +14166,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.1596560594857</v>
+        <v>550.9416180680236</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.357315803104</v>
+        <v>753.8226276694405</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.4502316282344</v>
+        <v>681.8788540813713</v>
       </c>
       <c r="AD2" t="n">
-        <v>405159.6560594857</v>
+        <v>550941.6180680236</v>
       </c>
       <c r="AE2" t="n">
-        <v>554357.3158031041</v>
+        <v>753822.6276694405</v>
       </c>
       <c r="AF2" t="n">
         <v>1.074682294955959e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.38888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>501450.2316282344</v>
+        <v>681878.8540813713</v>
       </c>
     </row>
   </sheetData>
@@ -14463,28 +14463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>610.9036982846628</v>
+        <v>783.9358810993062</v>
       </c>
       <c r="AB2" t="n">
-        <v>835.8653911621266</v>
+        <v>1072.615657330272</v>
       </c>
       <c r="AC2" t="n">
-        <v>756.0915713740571</v>
+        <v>970.2467244202001</v>
       </c>
       <c r="AD2" t="n">
-        <v>610903.6982846628</v>
+        <v>783935.8810993063</v>
       </c>
       <c r="AE2" t="n">
-        <v>835865.3911621266</v>
+        <v>1072615.657330272</v>
       </c>
       <c r="AF2" t="n">
         <v>5.26798594919829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.39814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>756091.5713740571</v>
+        <v>970246.7244202001</v>
       </c>
     </row>
     <row r="3">
@@ -14569,28 +14569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.5530075322005</v>
+        <v>577.137614996756</v>
       </c>
       <c r="AB3" t="n">
-        <v>605.5205489663109</v>
+        <v>789.6651463531526</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.7305176263936</v>
+        <v>714.3006130872006</v>
       </c>
       <c r="AD3" t="n">
-        <v>442553.0075322005</v>
+        <v>577137.6149967561</v>
       </c>
       <c r="AE3" t="n">
-        <v>605520.5489663109</v>
+        <v>789665.1463531526</v>
       </c>
       <c r="AF3" t="n">
         <v>6.685121459579495e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.10648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>547730.5176263936</v>
+        <v>714300.6130872007</v>
       </c>
     </row>
     <row r="4">
@@ -14675,28 +14675,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>399.0269722078079</v>
+        <v>524.0926297066314</v>
       </c>
       <c r="AB4" t="n">
-        <v>545.9663072023217</v>
+        <v>717.0866572996147</v>
       </c>
       <c r="AC4" t="n">
-        <v>493.8600491114561</v>
+        <v>648.6489131643833</v>
       </c>
       <c r="AD4" t="n">
-        <v>399026.9722078079</v>
+        <v>524092.6297066314</v>
       </c>
       <c r="AE4" t="n">
-        <v>545966.3072023217</v>
+        <v>717086.6572996146</v>
       </c>
       <c r="AF4" t="n">
         <v>7.068609289957791e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.63657407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>493860.0491114561</v>
+        <v>648648.9131643833</v>
       </c>
     </row>
     <row r="5">
@@ -14781,28 +14781,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>398.9965553047516</v>
+        <v>524.0622128035751</v>
       </c>
       <c r="AB5" t="n">
-        <v>545.924689453661</v>
+        <v>717.0450395509539</v>
       </c>
       <c r="AC5" t="n">
-        <v>493.8224033023167</v>
+        <v>648.6112673552437</v>
       </c>
       <c r="AD5" t="n">
-        <v>398996.5553047516</v>
+        <v>524062.2128035751</v>
       </c>
       <c r="AE5" t="n">
-        <v>545924.689453661</v>
+        <v>717045.0395509539</v>
       </c>
       <c r="AF5" t="n">
         <v>7.088809343089192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.56712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>493822.4033023167</v>
+        <v>648611.2673552438</v>
       </c>
     </row>
   </sheetData>
@@ -15078,28 +15078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.0457808981749</v>
+        <v>966.6708715308883</v>
       </c>
       <c r="AB2" t="n">
-        <v>1056.347097680885</v>
+        <v>1322.641732937574</v>
       </c>
       <c r="AC2" t="n">
-        <v>955.5308132706837</v>
+        <v>1196.410662285343</v>
       </c>
       <c r="AD2" t="n">
-        <v>772045.780898175</v>
+        <v>966670.8715308884</v>
       </c>
       <c r="AE2" t="n">
-        <v>1056347.097680885</v>
+        <v>1322641.732937574</v>
       </c>
       <c r="AF2" t="n">
         <v>4.161191199474388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.35185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>955530.8132706836</v>
+        <v>1196410.662285343</v>
       </c>
     </row>
     <row r="3">
@@ -15184,28 +15184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.7613098935815</v>
+        <v>664.7047565614951</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.7921103301691</v>
+        <v>909.4783726316639</v>
       </c>
       <c r="AC3" t="n">
-        <v>642.0505475197407</v>
+        <v>822.67903320861</v>
       </c>
       <c r="AD3" t="n">
-        <v>518761.3098935814</v>
+        <v>664704.756561495</v>
       </c>
       <c r="AE3" t="n">
-        <v>709792.1103301691</v>
+        <v>909478.3726316639</v>
       </c>
       <c r="AF3" t="n">
         <v>5.606125897323089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.21296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>642050.5475197406</v>
+        <v>822679.03320861</v>
       </c>
     </row>
     <row r="4">
@@ -15290,28 +15290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>448.4842480488555</v>
+        <v>584.7586857315135</v>
       </c>
       <c r="AB4" t="n">
-        <v>613.635933909062</v>
+        <v>800.0926315503596</v>
       </c>
       <c r="AC4" t="n">
-        <v>555.071381620223</v>
+        <v>723.7329137322536</v>
       </c>
       <c r="AD4" t="n">
-        <v>448484.2480488555</v>
+        <v>584758.6857315135</v>
       </c>
       <c r="AE4" t="n">
-        <v>613635.9339090621</v>
+        <v>800092.6315503595</v>
       </c>
       <c r="AF4" t="n">
         <v>6.160215622820103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.58564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>555071.3816202229</v>
+        <v>723732.9137322536</v>
       </c>
     </row>
     <row r="5">
@@ -15396,28 +15396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>416.4180985521372</v>
+        <v>542.8888876341309</v>
       </c>
       <c r="AB5" t="n">
-        <v>569.761613508978</v>
+        <v>742.8045266283949</v>
       </c>
       <c r="AC5" t="n">
-        <v>515.3843647811274</v>
+        <v>671.9123051396811</v>
       </c>
       <c r="AD5" t="n">
-        <v>416418.0985521371</v>
+        <v>542888.8876341309</v>
       </c>
       <c r="AE5" t="n">
-        <v>569761.613508978</v>
+        <v>742804.526628395</v>
       </c>
       <c r="AF5" t="n">
         <v>6.441788287206992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>515384.3647811274</v>
+        <v>671912.3051396811</v>
       </c>
     </row>
     <row r="6">
@@ -15502,28 +15502,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>417.3031649812436</v>
+        <v>543.7739540632374</v>
       </c>
       <c r="AB6" t="n">
-        <v>570.9726004436568</v>
+        <v>744.0155135630737</v>
       </c>
       <c r="AC6" t="n">
-        <v>516.4797768223912</v>
+        <v>673.0077171809447</v>
       </c>
       <c r="AD6" t="n">
-        <v>417303.1649812437</v>
+        <v>543773.9540632374</v>
       </c>
       <c r="AE6" t="n">
-        <v>570972.6004436568</v>
+        <v>744015.5135630737</v>
       </c>
       <c r="AF6" t="n">
         <v>6.436270028960214e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.43981481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>516479.7768223912</v>
+        <v>673007.7171809447</v>
       </c>
     </row>
   </sheetData>
@@ -15799,28 +15799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>450.411139398616</v>
+        <v>612.8778680301803</v>
       </c>
       <c r="AB2" t="n">
-        <v>616.2723916622515</v>
+        <v>838.5665373021661</v>
       </c>
       <c r="AC2" t="n">
-        <v>557.4562195457395</v>
+        <v>758.5349239175737</v>
       </c>
       <c r="AD2" t="n">
-        <v>450411.139398616</v>
+        <v>612877.8680301802</v>
       </c>
       <c r="AE2" t="n">
-        <v>616272.3916622514</v>
+        <v>838566.5373021661</v>
       </c>
       <c r="AF2" t="n">
         <v>1.102958170188749e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.01851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>557456.2195457395</v>
+        <v>758534.9239175736</v>
       </c>
     </row>
   </sheetData>
@@ -16096,28 +16096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>448.9503284839066</v>
+        <v>590.4954611651392</v>
       </c>
       <c r="AB2" t="n">
-        <v>614.2736457223167</v>
+        <v>807.9419407873163</v>
       </c>
       <c r="AC2" t="n">
-        <v>555.6482311130545</v>
+        <v>730.8330959122098</v>
       </c>
       <c r="AD2" t="n">
-        <v>448950.3284839066</v>
+        <v>590495.4611651392</v>
       </c>
       <c r="AE2" t="n">
-        <v>614273.6457223167</v>
+        <v>807941.9407873163</v>
       </c>
       <c r="AF2" t="n">
         <v>7.440816302820536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.10879629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>555648.2311130546</v>
+        <v>730833.0959122098</v>
       </c>
     </row>
     <row r="3">
@@ -16202,28 +16202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.4985458120644</v>
+        <v>508.1916281910488</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.456117375615</v>
+        <v>695.3302055233173</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.1164458225958</v>
+        <v>628.9688666102439</v>
       </c>
       <c r="AD3" t="n">
-        <v>385498.5458120644</v>
+        <v>508191.6281910489</v>
       </c>
       <c r="AE3" t="n">
-        <v>527456.1173756151</v>
+        <v>695330.2055233173</v>
       </c>
       <c r="AF3" t="n">
         <v>8.241956480189684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.28472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>477116.4458225959</v>
+        <v>628968.8666102439</v>
       </c>
     </row>
   </sheetData>
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>543.7287197088095</v>
+        <v>696.54056708706</v>
       </c>
       <c r="AB2" t="n">
-        <v>743.9536219237466</v>
+        <v>953.0375330895779</v>
       </c>
       <c r="AC2" t="n">
-        <v>672.9517323928096</v>
+        <v>862.0809685280868</v>
       </c>
       <c r="AD2" t="n">
-        <v>543728.7197088095</v>
+        <v>696540.5670870601</v>
       </c>
       <c r="AE2" t="n">
-        <v>743953.6219237465</v>
+        <v>953037.5330895779</v>
       </c>
       <c r="AF2" t="n">
         <v>5.987706056995825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.21064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>672951.7323928096</v>
+        <v>862080.9685280868</v>
       </c>
     </row>
     <row r="3">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.3826359012866</v>
+        <v>528.5296394321707</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.294162542946</v>
+        <v>723.1575697531513</v>
       </c>
       <c r="AC3" t="n">
-        <v>500.4885442230807</v>
+        <v>654.1404262539336</v>
       </c>
       <c r="AD3" t="n">
-        <v>404382.6359012866</v>
+        <v>528529.6394321707</v>
       </c>
       <c r="AE3" t="n">
-        <v>553294.1625429459</v>
+        <v>723157.5697531513</v>
       </c>
       <c r="AF3" t="n">
         <v>7.385442911866861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>500488.5442230807</v>
+        <v>654140.4262539336</v>
       </c>
     </row>
     <row r="4">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.8761454651753</v>
+        <v>523.5770859153243</v>
       </c>
       <c r="AB4" t="n">
-        <v>533.4457423470681</v>
+        <v>716.3812675401615</v>
       </c>
       <c r="AC4" t="n">
-        <v>482.5344293932647</v>
+        <v>648.0108448135516</v>
       </c>
       <c r="AD4" t="n">
-        <v>389876.1454651753</v>
+        <v>523577.0859153244</v>
       </c>
       <c r="AE4" t="n">
-        <v>533445.742347068</v>
+        <v>716381.2675401615</v>
       </c>
       <c r="AF4" t="n">
         <v>7.488590159502194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.75231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>482534.4293932647</v>
+        <v>648010.8448135515</v>
       </c>
     </row>
   </sheetData>
